--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -533,12 +533,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO CHINESE CULTURE (This course will be taught in English)</t>
+          <t>INTRODUCTION TO CHINESE CULTURE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3137,12 +3137,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4859,12 +4859,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5195,12 +5195,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5237,12 +5237,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5405,12 +5405,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5531,12 +5531,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5657,12 +5657,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5825,12 +5825,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5867,12 +5867,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5993,12 +5993,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6077,12 +6077,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6245,12 +6245,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6329,12 +6329,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6371,12 +6371,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6413,12 +6413,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6455,12 +6455,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6497,12 +6497,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6539,12 +6539,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6623,12 +6623,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6665,12 +6665,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6707,12 +6707,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6833,12 +6833,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6875,12 +6875,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6917,12 +6917,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6959,12 +6959,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7001,12 +7001,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7085,12 +7085,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7127,12 +7127,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7169,12 +7169,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7211,12 +7211,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7253,12 +7253,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7295,12 +7295,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7337,12 +7337,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7379,12 +7379,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7463,12 +7463,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7505,12 +7505,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7547,12 +7547,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7589,12 +7589,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7673,12 +7673,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7715,12 +7715,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7757,12 +7757,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7799,12 +7799,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7841,12 +7841,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7883,12 +7883,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7925,12 +7925,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7967,12 +7967,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8051,12 +8051,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8093,12 +8093,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8177,12 +8177,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8219,12 +8219,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8261,12 +8261,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8303,12 +8303,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8345,12 +8345,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8387,12 +8387,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8429,12 +8429,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8471,12 +8471,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8513,12 +8513,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8555,12 +8555,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8639,12 +8639,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8723,12 +8723,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8765,12 +8765,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8849,12 +8849,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8891,12 +8891,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8933,12 +8933,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8975,12 +8975,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -9017,12 +9017,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -9059,12 +9059,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -9143,12 +9143,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -9185,12 +9185,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9227,12 +9227,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9269,12 +9269,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9311,12 +9311,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9353,12 +9353,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9395,12 +9395,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9437,12 +9437,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9479,12 +9479,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9563,12 +9563,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9605,12 +9605,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9647,12 +9647,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9689,12 +9689,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9731,12 +9731,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9773,12 +9773,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9857,12 +9857,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9899,12 +9899,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -10025,12 +10025,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10067,12 +10067,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10235,12 +10235,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -9983,7 +9983,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>150</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4229,12 +4229,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4523,12 +4523,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4859,12 +4859,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5195,12 +5195,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5237,12 +5237,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5405,12 +5405,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5531,12 +5531,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5657,12 +5657,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8345,12 +8345,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8387,12 +8387,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8429,12 +8429,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8471,12 +8471,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8513,12 +8513,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8555,12 +8555,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9395,12 +9395,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9437,12 +9437,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9479,12 +9479,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>148</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4859,12 +4859,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -9899,12 +9899,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4145,12 +4145,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -533,12 +533,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>107</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3137,12 +3137,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>133</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4271,12 +4271,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4313,12 +4313,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4523,12 +4523,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4859,12 +4859,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -10025,12 +10025,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10067,12 +10067,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10235,12 +10235,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GQC0017</t>
+          <t>GFE0007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO CORPORATE SOCIAL RESPONSIBILITY</t>
+          <t>DATA ANALYTICS MADE EASY: FOR BEGINNERS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -953,17 +953,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GQE0011</t>
+          <t>GQC0017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DEMOCRACY AND SOCIETY</t>
+          <t>INTRODUCTION TO CORPORATE SOCIAL RESPONSIBILITY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1138,22 +1138,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FAB</t>
+          <t>FEP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GBB0031</t>
+          <t>GQE0011</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DESIGN THINKING</t>
+          <t>DEMOCRACY AND SOCIETY</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1163,17 +1163,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1185,79 +1185,79 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GQB0008</t>
+          <t>GBB0031</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUSTAINABLE CONSTRUCTION</t>
+          <t>DESIGN THINKING</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>FAB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQB0008</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>SUSTAINABLE CONSTRUCTION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1899,32 +1899,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GBX0010</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO SOCIAL ENTREPRENEURSHIP</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GBX0011</t>
+          <t>GBX0010</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>STEM EDUCATION MANAGEMENT</t>
+          <t>INTRODUCTION TO SOCIAL ENTREPRENEURSHIP</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GDX0015</t>
+          <t>GBX0011</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>APPRECIATION OF HARMONY SINGING (Room: Bilik Seminar, CITrA)</t>
+          <t>STEM EDUCATION MANAGEMENT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1998,22 +1998,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GQX0028</t>
+          <t>GDX0015</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO RELIGIOUS DIALOGUE (Room: Bilik Seminar, CITrA)</t>
+          <t>APPRECIATION OF HARMONY SINGING (Room: Bilik Seminar, CITrA)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2045,17 +2045,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GQX0031</t>
+          <t>GQX0028</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>APPRECIATION OF MALAYSIAN HERITAGE DANCE (Room: Bilik Seminar, CITrA)</t>
+          <t>INTRODUCTION TO RELIGIOUS DIALOGUE (Room: Bilik Seminar, CITrA)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2109,32 +2109,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GQX0035</t>
+          <t>GQX0031</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO DISABILITY EQUALITY TRAINING</t>
+          <t>APPRECIATION OF MALAYSIAN HERITAGE DANCE (Room: Bilik Seminar, CITrA)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2151,32 +2151,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GQX0036</t>
+          <t>GQX0035</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HERITAGE OF THE ART OF CANTING (Room: Bilik Seminar, CITrA)</t>
+          <t>INTRODUCTION TO DISABILITY EQUALITY TRAINING</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2193,17 +2193,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GQX0037</t>
+          <t>GQX0036</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HERITAGE OF TRADITIONAL CRAFT (Room: Bilik SKET C, CITrA)</t>
+          <t>HERITAGE OF THE ART OF CANTING (Room: Bilik Seminar, CITrA)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2235,17 +2235,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GQX0038</t>
+          <t>GQX0037</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO TOBACCO CONTROL</t>
+          <t>HERITAGE OF TRADITIONAL CRAFT (Room: Bilik SKET C, CITrA)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GQX0038</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>INTRODUCTION TO TOBACCO CONTROL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2314,32 +2314,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INSTITUTE FOR ADVANCED STUDIES</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GQH0054</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NASI LEMAK AND THE FOOD SYSTEM</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2356,32 +2356,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INSTITUTE FOR ADVANCED STUDIES</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GQH0055</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HEALTHY PLANET, HEALTHY LIFE</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2398,22 +2398,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBI0001</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2423,39 +2423,39 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GBI0001</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2465,34 +2465,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GBI0001</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2507,34 +2507,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GBI0001</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2549,39 +2549,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2591,39 +2591,39 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2633,39 +2633,39 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQX0056</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2717,101 +2717,101 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>INSTITUTE FOR ADVANCED STUDIES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQH0054</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>NASI LEMAK AND THE FOOD SYSTEM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>INSTITUTE FOR ADVANCED STUDIES</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQH0055</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>HEALTHY PLANET, HEALTHY LIFE</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2823,17 +2823,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GBI0001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2865,17 +2865,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GBI0001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GDI0001</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>STRENGTHENING OF ISLAMIC CREED</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GDI0003</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ISLAMIC AKHLAQ EDUCATION</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3011,17 +3011,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GQI0001</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>FUNDAMENTALS OF ISLAMIC POLITICAL THOUGHT</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GQI0002</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ISLAMIC LAW AND GLOBAL ISSUES</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3095,17 +3095,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GQI0003</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ISLAMIC ECONOMIC INSTITUTIONS</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3137,39 +3137,39 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GQJ0004</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MALAY LANGUAGE USAGE IN SOCIETY</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3179,39 +3179,39 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GQJ0007</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO MALAY CULTURE</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3221,118 +3221,118 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GFK0026</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ASSISTIVE &amp; REHABILITATION TECHNOLOGY</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GFK0027</t>
+          <t>GDI0001</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO BIOMEDICAL ENGINEERING</t>
+          <t>STRENGTHENING OF ISLAMIC CREED</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GQK0047</t>
+          <t>GDI0003</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ENERGY, ENVIRONMENT, AND SOCIETY</t>
+          <t>ISLAMIC AKHLAQ EDUCATION</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3342,39 +3342,39 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>283</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GQK0048</t>
+          <t>GQI0001</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GREEN FUELS</t>
+          <t>FUNDAMENTALS OF ISLAMIC POLITICAL THOUGHT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3384,17 +3384,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GQK0049</t>
+          <t>GQI0002</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GREENING MALAYSIAN INDUSTRY</t>
+          <t>ISLAMIC LAW AND GLOBAL ISSUES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3426,17 +3426,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3448,17 +3448,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GQK0050</t>
+          <t>GQI0003</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>INNOVATION IN SUSTAINABILITY</t>
+          <t>ISLAMIC ECONOMIC INSTITUTIONS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3490,17 +3490,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GQK0051</t>
+          <t>GQJ0004</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO ENVIRONMENTAL RISK, HAZARDS AND FORENSIC</t>
+          <t>MALAY LANGUAGE USAGE IN SOCIETY</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3510,17 +3510,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3532,17 +3532,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GQK0052</t>
+          <t>GQJ0007</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SUSTAINABLE AND RESILIENT CONSTRUCTION MATERIALS</t>
+          <t>INTRODUCTION TO MALAY CULTURE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3552,17 +3552,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3574,17 +3574,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GBL0008</t>
+          <t>GFK0026</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MY CONSTITUTION</t>
+          <t>ASSISTIVE &amp; REHABILITATION TECHNOLOGY</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3594,39 +3594,39 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GBL0008</t>
+          <t>GFK0027</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MY CONSTITUTION</t>
+          <t>INTRODUCTION TO BIOMEDICAL ENGINEERING</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3636,81 +3636,81 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GFL0004</t>
+          <t>GQK0047</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>E-COMMERCE LAW</t>
+          <t>ENERGY, ENVIRONMENT, AND SOCIETY</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GFL0004</t>
+          <t>GQK0048</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>E-COMMERCE LAW</t>
+          <t>GREEN FUELS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3720,44 +3720,44 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FOM</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GBM0006</t>
+          <t>GQK0049</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PHYSICS AND RADIATION IN LIFE</t>
+          <t>GREENING MALAYSIAN INDUSTRY</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3767,39 +3767,39 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FOM</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GDM0006</t>
+          <t>GQK0050</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GLOBAL TRENDS IN FOOD AND HEALTH</t>
+          <t>INNOVATION IN SUSTAINABILITY</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3809,39 +3809,39 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PHARMACY</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GBO0032</t>
+          <t>GQK0051</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MEDICINES AND HEALTH</t>
+          <t>INTRODUCTION TO ENVIRONMENTAL RISK, HAZARDS AND FORENSIC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3851,54 +3851,54 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PHARMACY</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GQO0053</t>
+          <t>GQK0052</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO THE MICROBIAL WORLD</t>
+          <t>SUSTAINABLE AND RESILIENT CONSTRUCTION MATERIALS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3910,22 +3910,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FUU</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GDP0014</t>
+          <t>GBL0008</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>STRESS MANAGEMENT</t>
+          <t>MY CONSTITUTION</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3935,34 +3935,34 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FUU</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GFP0009</t>
+          <t>GBL0008</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIGITAL CREATIVITY *English Slot (International Students)</t>
+          <t>MY CONSTITUTION</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3977,39 +3977,39 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FUU</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GFP0010</t>
+          <t>GFL0004</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EDUCATIONAL TECHNOLOGY FOR ALL</t>
+          <t>E-COMMERCE LAW</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4036,22 +4036,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FUU</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GFP0011</t>
+          <t>GFL0004</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RESPONSIBLE DIGITAL CITIZENSHIP</t>
+          <t>E-COMMERCE LAW</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4078,59 +4078,59 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FOM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GQP0014</t>
+          <t>GBM0006</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EDUCATION FOR SUSTAINABLE AND SUSTAINABILITY</t>
+          <t>PHYSICS AND RADIATION IN LIFE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FOM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GQP0015</t>
+          <t>GDM0006</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GLOBAL EDUCATION*English Slot (International Students)</t>
+          <t>GLOBAL TRENDS IN FOOD AND HEALTH</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4140,81 +4140,81 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>PHARMACY</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GQP0016</t>
+          <t>GBO0032</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>COMPARING EDUCATION SYSTEMS</t>
+          <t>MEDICINES AND HEALTH</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>PHARMACY</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GBR0024</t>
+          <t>GQO0053</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO DRAMA AESTHETIC</t>
+          <t>INTRODUCTION TO THE MICROBIAL WORLD</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4229,34 +4229,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GDR0010</t>
+          <t>GDP0014</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DANCE IN THE WORLD</t>
+          <t>STRESS MANAGEMENT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4271,12 +4271,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4288,22 +4288,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GFR0019</t>
+          <t>GFP0009</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIGITAL VIDEO PRODUCTION FOR WEB</t>
+          <t>DIGITAL CREATIVITY *English Slot (International Students)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4313,12 +4313,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4330,64 +4330,64 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBS0023</t>
+          <t>GFP0010</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DEALING WITH PSEUDOSCIENCE</t>
+          <t>EDUCATIONAL TECHNOLOGY FOR ALL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GBS0025</t>
+          <t>GFP0011</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CHEMISTRY IN EVERYDAY LIFE (HANYA BAGI PELAJAR LUAR FAKULTI (SHE))</t>
+          <t>RESPONSIBLE DIGITAL CITIZENSHIP</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4397,34 +4397,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GBS0028</t>
+          <t>GQP0014</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BASIC STATISTICS</t>
+          <t>EDUCATION FOR SUSTAINABLE AND SUSTAINABILITY</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4449,29 +4449,29 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GBS0030</t>
+          <t>GQP0015</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PHILOSOPHY OF SCIENCE</t>
+          <t>GLOBAL EDUCATION*English Slot (International Students)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4481,81 +4481,81 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GFS0013</t>
+          <t>GQP0016</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO BIOCOMPUTING</t>
+          <t>COMPARING EDUCATION SYSTEMS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GFS0014</t>
+          <t>GBR0024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SCIENTIFIC COMPUTING FOR NON-SCIENTISTS</t>
+          <t>INTRODUCTION TO DRAMA AESTHETIC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4565,39 +4565,39 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GQS0026</t>
+          <t>GDR0010</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EARTH NATURAL RESOURCES</t>
+          <t>DANCE IN THE WORLD</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4607,76 +4607,76 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GFR0019</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>DIGITAL VIDEO PRODUCTION FOR WEB</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GBS0023</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>DEALING WITH PSEUDOSCIENCE</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4708,37 +4708,37 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GBS0025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>CHEMISTRY IN EVERYDAY LIFE (HANYA BAGI PELAJAR LUAR FAKULTI (SHE))</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4750,37 +4750,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GBS0028</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>BASIC STATISTICS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4792,37 +4792,37 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GBS0030</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>PHILOSOPHY OF SCIENCE</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4834,22 +4834,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GFS0013</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>INTRODUCTION TO BIOCOMPUTING</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4859,101 +4859,101 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GFS0014</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>SCIENTIFIC COMPUTING FOR NON-SCIENTISTS</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQS0026</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>EARTH NATURAL RESOURCES</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GDT0023</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TOKI PONA: A MINIMALIST CONSTRUCTED LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5027,17 +5027,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GQT0039</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>COMMUNICATION SKILLS FOR EMPLOYMENT PURPOSES</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5069,17 +5069,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5091,17 +5091,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5111,17 +5111,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5133,17 +5133,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5153,17 +5153,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5175,17 +5175,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5195,17 +5195,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5217,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5259,17 +5259,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5279,17 +5279,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5301,17 +5301,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5321,17 +5321,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GDT0023</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>TOKI PONA: A MINIMALIST CONSTRUCTED LANGUAGE</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5363,17 +5363,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5385,17 +5385,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0039</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>COMMUNICATION SKILLS FOR EMPLOYMENT PURPOSES</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -7149,17 +7149,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7191,17 +7191,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7233,17 +7233,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7275,17 +7275,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7317,17 +7317,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7359,17 +7359,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7401,17 +7401,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7443,17 +7443,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>QURANIC LANGUAGE</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -9207,17 +9207,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9227,12 +9227,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9249,17 +9249,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9269,12 +9269,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9291,17 +9291,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9311,12 +9311,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9333,17 +9333,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9353,12 +9353,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9375,17 +9375,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9395,12 +9395,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9417,17 +9417,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9437,12 +9437,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9459,17 +9459,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9479,12 +9479,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9501,17 +9501,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>GQT0042</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
+          <t>ARABIC LANGUAGE AND CULTURE</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>GQT0043</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>JOURNALISM FOR SUSTAINABLE DEVELOPMENT</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9899,12 +9899,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9916,17 +9916,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>GFW0015</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>COMPUTATIONAL THINKING WITH ROBOTICS</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9951,24 +9951,24 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>GFW0017</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SOCIAL INFORMATICS</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9993,66 +9993,66 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>GFW0018</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>GFW0018</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10062,44 +10062,44 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GFW0018</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10109,39 +10109,39 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GFW0018</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10151,34 +10151,34 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>FSKTM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>GFW0031</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10193,57 +10193,393 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t>FBL</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>GQT0043</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>JOURNALISM FOR SUSTAINABLE DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
           <t>FSKTM</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>GFW0015</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>COMPUTATIONAL THINKING WITH ROBOTICS</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>GFW0017</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SOCIAL INFORMATICS</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>GFW0018</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>LECTURE</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>GFW0018</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>LECTURE</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>GFW0018</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>GFW0018</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>GFW0031</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>FSKTM</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
         <is>
           <t>GFW0033</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>WEBSITE DEVELOPMENT AND OPTIMIZATION</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>TUTORIAL</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/mayascrapingproject/shecourselist.xlsx
+++ b/mayascrapingproject/shecourselist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>APPRECIATING LITERATURE   (This course will be taught in English)</t>
+          <t>APPRECIATING LITERATURE (English Language)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LITERATURE AND GENDER (This course will be taught in English)</t>
+          <t>LITERATURE AND GENDER (English Language)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GQA0021</t>
+          <t>GQA0022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO CHINESE CULTURE</t>
+          <t>BITE-SIZE CLIMATE ACTION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,22 +634,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FSSS</t>
+          <t>FEP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GQA0022</t>
+          <t>GBE0015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BITE-SIZE CLIMATE ACTION</t>
+          <t>SEEING THE WORLD LIKE AN ECONOMIST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,17 +659,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GBC0004</t>
+          <t>GFE0007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PERSONAL FINANCE</t>
+          <t>DATA ANALYTICS MADE EASY: FOR BEGINNERS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,39 +701,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>FAB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GBC0004</t>
+          <t>GQB0008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PERSONAL FINANCE</t>
+          <t>SUSTAINABLE CONSTRUCTION</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -743,39 +743,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GBC0005</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UNDERSTANDING CONSUMER PSYCHOLOGY</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -785,12 +785,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -802,22 +802,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBC0019</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PERSONAL INCOME TAX</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -827,12 +827,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -844,17 +844,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBE0015</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEEING THE WORLD LIKE AN ECONOMIST</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -886,22 +886,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GFE0007</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DATA ANALYTICS MADE EASY: FOR BEGINNERS</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -911,39 +911,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GFE0007</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DATA ANALYTICS MADE EASY: FOR BEGINNERS</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -953,34 +953,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GQC0017</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO CORPORATE SOCIAL RESPONSIBILITY</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1005,24 +1005,24 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GQE0011</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DEMOCRACY AND SOCIETY</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1037,34 +1037,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GQE0011</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DEMOCRACY AND SOCIETY</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1079,34 +1079,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GQE0011</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DEMOCRACY AND SOCIETY</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1121,34 +1121,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FEP</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GQE0011</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DEMOCRACY AND SOCIETY</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1163,34 +1163,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FAB</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GBB0031</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DESIGN THINKING</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1222,17 +1222,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FAB</t>
+          <t>UNIVERSITY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GQB0008</t>
+          <t>GBX0009</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUSTAINABLE CONSTRUCTION</t>
+          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1242,22 +1242,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1437,32 +1437,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GBX0011</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>STEM EDUCATION MANAGEMENT (Room: Bilik Seminar CITrA)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1479,32 +1479,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GBX0011</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>STEM EDUCATION MANAGEMENT (Room: Bilik Seminar CITrA)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1521,37 +1521,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GDX0015</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>APPRECIATION OF HARMONY SINGING (Room: Bilik Seminar, CITrA)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1563,37 +1563,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0031</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>APPRECIATION OF MALAYSIAN HERITAGE DANCE (Room: Bilik Seminar, CITrA)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0035</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>INTRODUCTION TO DISABILITY EQUALITY TRAINING</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0036</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>HERITAGE OF THE ART OF CANTING</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1662,22 +1662,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0036</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>HERITAGE OF THE ART OF CANTING</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1704,22 +1704,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0036</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>HERITAGE OF THE ART OF CANTING</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1746,22 +1746,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0037</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>HERITAGE OF TRADITIONAL CRAFT (Room: Bilik SKET D, CITrA)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1788,22 +1788,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0037</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>HERITAGE OF TRADITIONAL CRAFT (Room: Bilik SKET D, CITrA)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1830,22 +1830,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQX0037</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>HERITAGE OF TRADITIONAL CRAFT (Room: Bilik SKET D, CITrA)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1872,39 +1872,39 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>INSTITUTE FOR ADVANCED STUDIES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GBX0009</t>
+          <t>GQH0054</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>INFORMATION SEEKING, WRITING, AND ACADEMIC PUBLICATIONS</t>
+          <t>NASI LEMAK AND THE FOOD SYSTEM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1919,34 +1919,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>INSTITUTE FOR ADVANCED STUDIES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GBX0010</t>
+          <t>GQH0054</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO SOCIAL ENTREPRENEURSHIP</t>
+          <t>NASI LEMAK AND THE FOOD SYSTEM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1956,44 +1956,44 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>INSTITUTE FOR ADVANCED STUDIES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GBX0011</t>
+          <t>GQH0055</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>STEM EDUCATION MANAGEMENT</t>
+          <t>HEALTHY PLANET, HEALTHY LIFE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2003,34 +2003,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>INSTITUTE FOR ADVANCED STUDIES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GDX0015</t>
+          <t>GQH0055</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>APPRECIATION OF HARMONY SINGING (Room: Bilik Seminar, CITrA)</t>
+          <t>HEALTHY PLANET, HEALTHY LIFE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2040,39 +2040,39 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GQX0028</t>
+          <t>GBI0001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO RELIGIOUS DIALOGUE (Room: Bilik Seminar, CITrA)</t>
+          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2087,34 +2087,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GQX0031</t>
+          <t>GBI0001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>APPRECIATION OF MALAYSIAN HERITAGE DANCE (Room: Bilik Seminar, CITrA)</t>
+          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2129,39 +2129,39 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GQX0035</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO DISABILITY EQUALITY TRAINING</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2171,34 +2171,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GQX0036</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HERITAGE OF THE ART OF CANTING (Room: Bilik Seminar, CITrA)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2223,24 +2223,24 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GQX0037</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HERITAGE OF TRADITIONAL CRAFT (Room: Bilik SKET C, CITrA)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2265,24 +2265,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GQX0038</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO TOBACCO CONTROL</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2292,39 +2292,39 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2349,24 +2349,24 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2391,24 +2391,24 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2433,24 +2433,24 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2475,24 +2475,24 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2517,24 +2517,24 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2559,24 +2559,24 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2601,24 +2601,24 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2643,24 +2643,24 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2685,24 +2685,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UNIVERSITY</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GQX0056</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>INTEGRITY AND ANTI-CORRUPTION COURSE (For Local Student Only)</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2727,24 +2727,24 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INSTITUTE FOR ADVANCED STUDIES</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GQH0054</t>
+          <t>GBI0013</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NASI LEMAK AND THE FOOD SYSTEM</t>
+          <t>ISLAM AND SCIENCE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2769,24 +2769,24 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INSTITUTE FOR ADVANCED STUDIES</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GQH0055</t>
+          <t>GDI0001</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HEALTHY PLANET, HEALTHY LIFE</t>
+          <t>STRENGTHENING OF ISLAMIC CREED</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2796,22 +2796,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>700</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GBI0001</t>
+          <t>GQI0002</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
+          <t>ISLAMIC LAW AND GLOBAL ISSUES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GBI0001</t>
+          <t>GQI0003</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PRINCIPLES OF MUAMALAT AND ISLAMIC MANAGEMENT</t>
+          <t>ISLAMIC ECONOMIC INSTITUTIONS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2885,34 +2885,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQK0050</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INNOVATION IN SUSTAINABILITY</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2937,24 +2937,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQK0050</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INNOVATION IN SUSTAINABILITY</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2979,24 +2979,24 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQK0051</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>INTRODUCTION TO ENVIRONMENTAL RISK, HAZARDS AND FORENSIC</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3006,39 +3006,39 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GQK0052</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>SUSTAINABLE AND RESILIENT CONSTRUCTION MATERIALS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3048,39 +3048,39 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FUU</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GBL0008</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>MY CONSTITUTION</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3112,17 +3112,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FUU</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GFL0004</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>E-COMMERCE LAW</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3147,24 +3147,24 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>PHARMACY</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GBO0032</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>MEDICINES AND HEALTH</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3174,17 +3174,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3196,17 +3196,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GDP0014</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>STRESS MANAGEMENT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3216,39 +3216,39 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GBI0013</t>
+          <t>GFP0009</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ISLAM AND SCIENCE</t>
+          <t>DIGITAL CREATIVITY</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3273,24 +3273,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GDI0001</t>
+          <t>GQP0014</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>STRENGTHENING OF ISLAMIC CREED</t>
+          <t>EDUCATION FOR SUSTAINABLE AND SUSTAINABILITY</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3305,34 +3305,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GDI0003</t>
+          <t>GQP0015</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ISLAMIC AKHLAQ EDUCATION</t>
+          <t>GLOBAL EDUCATION</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3347,34 +3347,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FEDU</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GQI0001</t>
+          <t>GQP0016</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FUNDAMENTALS OF ISLAMIC POLITICAL THOUGHT</t>
+          <t>COMPARING EDUCATION SYSTEMS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GQI0002</t>
+          <t>GFS0013</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ISLAMIC LAW AND GLOBAL ISSUES</t>
+          <t>INTRODUCTION TO BIOCOMPUTING</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3426,39 +3426,39 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GQI0003</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ISLAMIC ECONOMIC INSTITUTIONS</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3468,39 +3468,39 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GQJ0004</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MALAY LANGUAGE USAGE IN SOCIETY</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3510,39 +3510,39 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>APM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GQJ0007</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO MALAY CULTURE</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3552,44 +3552,44 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GFK0026</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ASSISTIVE &amp; REHABILITATION TECHNOLOGY</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3599,34 +3599,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GFK0027</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO BIOMEDICAL ENGINEERING</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3641,34 +3641,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GQK0047</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ENERGY, ENVIRONMENT, AND SOCIETY</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3683,34 +3683,34 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GQK0048</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GREEN FUELS</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3720,39 +3720,39 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GQK0049</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GREENING MALAYSIAN INDUSTRY</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3762,39 +3762,39 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GQK0050</t>
+          <t>GBT0002</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>INNOVATION IN SUSTAINABILITY</t>
+          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3804,39 +3804,39 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>LECTURE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GQK0051</t>
+          <t>GDT0023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO ENVIRONMENTAL RISK, HAZARDS AND FORENSIC</t>
+          <t>TOKI PONA: A MINIMALIST CONSTRUCTED LANGUAGE</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3851,34 +3851,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GQK0052</t>
+          <t>GQT0039</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SUSTAINABLE AND RESILIENT CONSTRUCTION MATERIALS</t>
+          <t>COMMUNICATION SKILLS FOR EMPLOYMENT PURPOSES</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3910,17 +3910,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GBL0008</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MY CONSTITUTION</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3930,39 +3930,39 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GBL0008</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MY CONSTITUTION</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3982,29 +3982,29 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GFL0004</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E-COMMERCE LAW</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4014,39 +4014,39 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FUU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GFL0004</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E-COMMERCE LAW</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4066,29 +4066,29 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FOM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GBM0006</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PHYSICS AND RADIATION IN LIFE</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4103,34 +4103,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FOM</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GDM0006</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GLOBAL TRENDS IN FOOD AND HEALTH</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4145,34 +4145,34 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PHARMACY</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GBO0032</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MEDICINES AND HEALTH</t>
+          <t>QURANIC LANGUAGE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4187,34 +4187,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PHARMACY</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GQO0053</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO THE MICROBIAL WORLD</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4224,17 +4224,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4246,59 +4246,59 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GDP0014</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>STRESS MANAGEMENT</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GFP0009</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIGITAL CREATIVITY *English Slot (International Students)</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4308,39 +4308,39 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GFP0010</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EDUCATIONAL TECHNOLOGY FOR ALL</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4350,81 +4350,81 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GFP0011</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RESPONSIBLE DIGITAL CITIZENSHIP</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GQP0014</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EDUCATION FOR SUSTAINABLE AND SUSTAINABILITY</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4434,17 +4434,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4456,17 +4456,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GQP0015</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GLOBAL EDUCATION*English Slot (International Students)</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4476,17 +4476,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4498,17 +4498,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FEDU</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GQP0016</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>COMPARING EDUCATION SYSTEMS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4540,17 +4540,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GBR0024</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO DRAMA AESTHETIC</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4560,81 +4560,81 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GDR0010</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DANCE IN THE WORLD</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GFR0019</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIGITAL VIDEO PRODUCTION FOR WEB</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4659,29 +4659,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GBS0023</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DEALING WITH PSEUDOSCIENCE</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4691,34 +4691,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GBS0025</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CHEMISTRY IN EVERYDAY LIFE (HANYA BAGI PELAJAR LUAR FAKULTI (SHE))</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4728,39 +4728,39 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GBS0028</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BASIC STATISTICS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4770,39 +4770,39 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GBS0030</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PHILOSOPHY OF SCIENCE</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4812,39 +4812,39 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GFS0013</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO BIOCOMPUTING</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4859,34 +4859,34 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GFS0014</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SCIENTIFIC COMPUTING FOR NON-SCIENTISTS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4896,39 +4896,39 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>FBL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GQS0026</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EARTH NATURAL RESOURCES</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4938,17 +4938,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>LECTURE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4985,17 +4985,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5007,12 +5007,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5027,17 +5027,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5049,12 +5049,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5069,17 +5069,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5111,17 +5111,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5153,17 +5153,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5195,17 +5195,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5279,17 +5279,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GBT0002</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CRITICAL THINKING AND PROBLEM SOLVING SKILLS</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5321,17 +5321,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5343,17 +5343,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GDT0023</t>
+          <t>GQT0040</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TOKI PONA: A MINIMALIST CONSTRUCTED LANGUAGE</t>
+          <t>QURANIC LANGUAGE  (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5385,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GQT0039</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>COMMUNICATION SKILLS FOR EMPLOYMENT PURPOSES</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5405,12 +5405,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5427,12 +5427,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5469,12 +5469,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5531,12 +5531,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5553,12 +5553,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5595,12 +5595,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5637,12 +5637,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5657,12 +5657,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5825,12 +5825,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5867,12 +5867,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5931,12 +5931,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5951,12 +5951,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5993,12 +5993,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6077,12 +6077,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6099,12 +6099,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6225,12 +6225,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6245,12 +6245,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6309,12 +6309,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6329,12 +6329,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6371,12 +6371,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6393,12 +6393,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6413,12 +6413,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6435,12 +6435,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6455,12 +6455,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6497,12 +6497,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6519,12 +6519,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6539,12 +6539,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6561,12 +6561,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6623,12 +6623,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6665,12 +6665,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6687,12 +6687,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6707,12 +6707,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6771,12 +6771,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6813,12 +6813,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0041</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>ARABIC LANGUAGE AND CULTURE (THIS COURSE ONLY OFFERED TO LOCAL STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF ARABIC)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6833,12 +6833,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6855,12 +6855,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6875,12 +6875,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6917,12 +6917,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6939,12 +6939,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6959,12 +6959,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7001,12 +7001,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7065,12 +7065,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7085,12 +7085,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7107,12 +7107,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7127,12 +7127,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7149,12 +7149,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7169,12 +7169,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7211,12 +7211,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7233,12 +7233,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7253,12 +7253,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7275,12 +7275,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7295,12 +7295,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7317,12 +7317,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7337,12 +7337,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7359,12 +7359,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7379,12 +7379,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7443,12 +7443,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GQT0040</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>QURANIC LANGUAGE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7463,12 +7463,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0042</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENTS WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7505,12 +7505,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7527,12 +7527,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GQT0043</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>JOURNALISM FOR SUSTAINABLE DEVELOPMENT</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7547,12 +7547,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7564,17 +7564,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0015</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>COMPUTATIONAL THINKING WITH ROBOTICS</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7589,34 +7589,34 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7631,34 +7631,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7673,34 +7673,34 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7715,34 +7715,34 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7757,34 +7757,34 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7799,34 +7799,34 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7841,34 +7841,34 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7883,34 +7883,34 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0018</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7925,34 +7925,34 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0031</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7967,34 +7967,34 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0031</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -8009,34 +8009,34 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0031</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8051,34 +8051,34 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0031</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8093,34 +8093,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0033</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>WEBSITE DEVELOPMENT AND OPTIMIZATION</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8135,34 +8135,34 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0033</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>WEBSITE DEVELOPMENT AND OPTIMIZATION</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -8177,34 +8177,34 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0033</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>WEBSITE DEVELOPMENT AND OPTIMIZATION</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8219,34 +8219,34 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FBL</t>
+          <t>FSKTM</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>GQT0041</t>
+          <t>GFW0033</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
+          <t>WEBSITE DEVELOPMENT AND OPTIMIZATION</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -8261,2325 +8261,15 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>GQT0041</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>ARABIC LANGUAGE AND CULTURE</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>GQT0042</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>CHINESE LANGUAGE AND CULTURE (THIS COURSE IS ONLY OFFERED TO STUDENT WHO DO NOT HAVE BASIC KNOWLEDGE OF CHINESE.)</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>FBL</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>GQT0043</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>JOURNALISM FOR SUSTAINABLE DEVELOPMENT</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>GFW0015</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>COMPUTATIONAL THINKING WITH ROBOTICS</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>GFW0017</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>SOCIAL INFORMATICS</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>GFW0018</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>LECTURE</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>GFW0018</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>LECTURE</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>GFW0018</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>GFW0018</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>SECURITY AND ETHICS IN CYBERSPACE</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>GFW0031</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>COMPUTER NETWORKS FOR EVERYBODY</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>FSKTM</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>GFW0033</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>WEBSITE DEVELOPMENT AND OPTIMIZATION</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>TUTORIAL</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
         <is>
           <t>3</t>
         </is>
